--- a/medicine/Enfance/Cécile_Roumiguière/Cécile_Roumiguière.xlsx
+++ b/medicine/Enfance/Cécile_Roumiguière/Cécile_Roumiguière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Roumigui%C3%A8re</t>
+          <t>Cécile_Roumiguière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cécile Roumiguière, née le 2 avril 1961 à Rodez, est une écrivaine française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Roumigui%C3%A8re</t>
+          <t>Cécile_Roumiguière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Passionnée de mise en scène et de réalisation, Cécile Roumiguière s'installe à Paris en 1984 pour suivre le cours de théâtre de Jean-Laurent Cochet. À partir de l'hiver 1985 et pendant dix ans, elle fait partie de l'équipe des “Médiévales de Carcassonne”, un son et lumière géant[1]. Assistante de réalisation de 1986 à 1993, elle écrit les spectacles des étés 1990, 1991, 1994 et 1995 tout en travaillant avec le réalisateur Jean-Marie Sittler sur des clips (Franck it's so Heavy, de Jean-Michel Kajdan), des vidéos institutionnelles et divers spectacles. En 1988, elle est assistante de production sur Jeanne d'Arc ou Le pouvoir et l'innocence, un téléfilm Antenne 2 de Pierre Badel. En 1992, elle est régisseuse musique du film Louis enfant roi, de Roger Planchon (musique de Jean-Pierre Fouquey, production Margaret Ménégoz pour les Films du Losange).
-Elle écrit d'autres spectacles, des articles pour des journaux spécialisés en informatique et jeux vidéo, des sites web, des textes institutionnels. Son premier livre, L'École du désert, est publié en 2004 chez Magnard. Lauréat du prix adulte des Incorruptibles, ce roman jeunesse a été vendu à 100 000 exemplaires. Suivront d'autres romans et des albums, en collaboration avec des artistes comme Natali Fortier, Benjamin Lacombe, Carole Chaix, Bobi-Bobi… En 2006, elle a l'idée d'une « bande d'auteurs pour écrire une bande d'adolescents ». C'est le début des « blue Cerises[2] », des nouvelles croisées[3] écrites à quatre, avec Sigrid Baffert, Jean-Michel Payet et Maryvonne Rippert. Elle est membre de la Charte des auteurs et des illustrateurs jeunesse[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Passionnée de mise en scène et de réalisation, Cécile Roumiguière s'installe à Paris en 1984 pour suivre le cours de théâtre de Jean-Laurent Cochet. À partir de l'hiver 1985 et pendant dix ans, elle fait partie de l'équipe des “Médiévales de Carcassonne”, un son et lumière géant. Assistante de réalisation de 1986 à 1993, elle écrit les spectacles des étés 1990, 1991, 1994 et 1995 tout en travaillant avec le réalisateur Jean-Marie Sittler sur des clips (Franck it's so Heavy, de Jean-Michel Kajdan), des vidéos institutionnelles et divers spectacles. En 1988, elle est assistante de production sur Jeanne d'Arc ou Le pouvoir et l'innocence, un téléfilm Antenne 2 de Pierre Badel. En 1992, elle est régisseuse musique du film Louis enfant roi, de Roger Planchon (musique de Jean-Pierre Fouquey, production Margaret Ménégoz pour les Films du Losange).
+Elle écrit d'autres spectacles, des articles pour des journaux spécialisés en informatique et jeux vidéo, des sites web, des textes institutionnels. Son premier livre, L'École du désert, est publié en 2004 chez Magnard. Lauréat du prix adulte des Incorruptibles, ce roman jeunesse a été vendu à 100 000 exemplaires. Suivront d'autres romans et des albums, en collaboration avec des artistes comme Natali Fortier, Benjamin Lacombe, Carole Chaix, Bobi-Bobi… En 2006, elle a l'idée d'une « bande d'auteurs pour écrire une bande d'adolescents ». C'est le début des « blue Cerises », des nouvelles croisées écrites à quatre, avec Sigrid Baffert, Jean-Michel Payet et Maryvonne Rippert. Elle est membre de la Charte des auteurs et des illustrateurs jeunesse.
 En 2011, elle suit une formation d'initiation à l'adaptation de scénario à la Fémis avec Pierre Linhart.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Roumigui%C3%A8re</t>
+          <t>Cécile_Roumiguière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Publications
-L’école du désert, roman, Magnard, collection Tipik cadet, mai 2004 (prix des Incorruptibles adultes en 2006)
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L’école du désert, roman, Magnard, collection Tipik cadet, mai 2004 (prix des Incorruptibles adultes en 2006)
 À l’ombre du tilleul, album illustré par Sacha Poliakova, Gautier-Languereau, novembre 2005 (prix Octogones poésie-comptines 2005)
 Le journal d’une Crevette, roman, Magnard, collection Tipik cadet +, septembre 2005
 Entre deux rives, Noël 43, album avec Natali Fortier, Gautier-Languereau, novembre 2006
@@ -566,7 +585,7 @@
 Les blue Cerises, saison 1 (version numérique sur iBooks), e-plum, février 2011
 « blue Cerises », saisons 1 à 4 en version reliée, d'octobre 2011 à février 2012, Milan, collection Macadam
 Ma sœur et moi, album illustré par Bobi-Bobi, La Joie de Lire, mai 2012
-Une princesse au Palais, album illustré par Carole Chaix, Thierry Magnier, août 2012[5]
+Une princesse au Palais, album illustré par Carole Chaix, Thierry Magnier, août 2012
 Ogre, cacatoès et chocolat, album illustré par Barroux, Belin, septembre 2012
 Le fil de soie, album illustré par Delphine Jacquot, Thierry Magnier, août 2013
 La Belle et la Bête, album illustré par Aurélia Fronty, Belin, novembre 2013
@@ -589,9 +608,43 @@
 Ô sisters !, un roman écrit avec Julia Billet école des loisirs, 2022
 Nuit trouble, roman de la collection “Court toujours” chez Nathan, 2022
 Sorcières, illustré par Benjamin Lacombe dans l'encyclopédie du Merveilleux, Albin Michel, 2022
-les manèges de Mila , illustration de Clotilde Perrin, école des loisirs , 2023
-Spectacles
-Les Cathares, dialogues pour « Les Médiévales de Carcassonne », 1990
+les manèges de Mila , illustration de Clotilde Perrin, école des loisirs , 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cécile_Roumiguière</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Roumigui%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Spectacles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Cathares, dialogues pour « Les Médiévales de Carcassonne », 1990
 La Légende des Chevaliers, scénario pour « Les Médiévales de Carcassonne », 1991
 Cipango !, scénario pour « Les Médiévales de Carcassonne », 1994
 Le Feu Sacré, scénario pour « Les Médiévales de Carcassonne », 1995
